--- a/secteur-action-publique/economie-emploi/regions/barometre-resultats-relance-emploi-economie-regions-synthese.xlsx
+++ b/secteur-action-publique/economie-emploi/regions/barometre-resultats-relance-emploi-economie-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="484">
   <si>
     <t>mesure</t>
   </si>
@@ -78,6 +78,90 @@
     <t>unite</t>
   </si>
   <si>
+    <t>Aide de France Relance aux entreprises</t>
+  </si>
+  <si>
+    <t>Nombre d'entreprises industrielles et organismes agricoles bénéficiaires des aides à l'investissement de France Relance</t>
+  </si>
+  <si>
+    <t>nb-entreprises-industrielles-agricoles</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>entreprises industrielles et agricoles</t>
+  </si>
+  <si>
+    <t>Numérisation des petites et moyennes entreprises</t>
+  </si>
+  <si>
+    <t>Nombre d'entreprises ayant bénéficié d'un chèque numérique de 500€</t>
+  </si>
+  <si>
+    <t>nb-entreprises-cheaque-numerique</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>entreprises</t>
+  </si>
+  <si>
+    <t>Nombre d'entreprises ayant disposé d'un diagnostic numérique et un plan d'action individualisé</t>
+  </si>
+  <si>
+    <t>nb-diagnostics-individualises</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
     <t>Développer l’apprentissage</t>
   </si>
   <si>
@@ -87,679 +171,1318 @@
     <t>nombre-contrats-apprentissage</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
+    <t>1330.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>950.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>contrats</t>
+  </si>
+  <si>
+    <t>Plan 1 jeune 1 solution</t>
+  </si>
+  <si>
+    <t>Nombre de recrutements de jeunes</t>
+  </si>
+  <si>
+    <t>nombre-recrutements-jeunes</t>
+  </si>
+  <si>
+    <t>4542.0</t>
+  </si>
+  <si>
+    <t>4305.0</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>237.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Recrutements de jeunes</t>
+  </si>
+  <si>
+    <t>Pacte d'ambition pour l'insertion par l'activité économique</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires en structures d'insertion par l'activité économique</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-siae</t>
+  </si>
+  <si>
+    <t>498.0</t>
+  </si>
+  <si>
+    <t>638.0</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>-140.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>bénéficiaires</t>
+  </si>
+  <si>
+    <t>Supprimer la taxe d’habitation sur les résidences principales</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires totalement exonérés</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-suppression-taxe-habitation</t>
+  </si>
+  <si>
+    <t>121583.0</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>151745.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>897.0</t>
+  </si>
+  <si>
+    <t>863.0</t>
+  </si>
+  <si>
+    <t>4550.0</t>
+  </si>
+  <si>
+    <t>4785.0</t>
+  </si>
+  <si>
+    <t>-235.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>1592.0</t>
+  </si>
+  <si>
+    <t>1534.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>125571.0</t>
+  </si>
+  <si>
+    <t>158173.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>583.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>2828.0</t>
+  </si>
+  <si>
+    <t>3118.0</t>
+  </si>
+  <si>
+    <t>-290.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>39780.0</t>
+  </si>
+  <si>
+    <t>55789.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>7198.0</t>
+  </si>
+  <si>
+    <t>3312.0</t>
+  </si>
+  <si>
+    <t>3886.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>19130.0</t>
+  </si>
+  <si>
+    <t>14001.0</t>
+  </si>
+  <si>
+    <t>5129.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>2555.0</t>
+  </si>
+  <si>
+    <t>1878.0</t>
+  </si>
+  <si>
+    <t>677.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>272280.0</t>
+  </si>
+  <si>
+    <t>333532.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>625.0</t>
+  </si>
+  <si>
+    <t>6591.0</t>
+  </si>
+  <si>
+    <t>11644.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>4020.0</t>
+  </si>
+  <si>
+    <t>706.0</t>
+  </si>
+  <si>
+    <t>3314.0</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>29499.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>2323.0</t>
+  </si>
+  <si>
+    <t>688.0</t>
+  </si>
+  <si>
+    <t>1635.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>5649.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>108476.0</t>
+  </si>
+  <si>
+    <t>55628.0</t>
+  </si>
+  <si>
+    <t>52848.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>345854.0</t>
+  </si>
+  <si>
+    <t>396040.0</t>
+  </si>
+  <si>
+    <t>-50186.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>14444.0</t>
+  </si>
+  <si>
+    <t>13225.0</t>
+  </si>
+  <si>
+    <t>1219.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3300887.0</t>
+  </si>
+  <si>
+    <t>5233253.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>914.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>773.0</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>3134.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>352.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>214.0</t>
+  </si>
+  <si>
+    <t>978.0</t>
+  </si>
+  <si>
+    <t>17443.0</t>
+  </si>
+  <si>
+    <t>13490.0</t>
+  </si>
+  <si>
+    <t>3953.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>44501.0</t>
+  </si>
+  <si>
+    <t>43867.0</t>
+  </si>
+  <si>
+    <t>634.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4685.0</t>
+  </si>
+  <si>
+    <t>4967.0</t>
+  </si>
+  <si>
+    <t>-282.0</t>
+  </si>
+  <si>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>943945.0</t>
+  </si>
+  <si>
+    <t>1176371.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>1158.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>917.0</t>
+  </si>
+  <si>
+    <t>3630.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>467.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>328.0</t>
+  </si>
+  <si>
+    <t>236.0</t>
+  </si>
+  <si>
+    <t>1161.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>19582.0</t>
+  </si>
+  <si>
+    <t>13744.0</t>
+  </si>
+  <si>
+    <t>5838.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>48265.0</t>
+  </si>
+  <si>
+    <t>48155.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>7774.0</t>
+  </si>
+  <si>
+    <t>7216.0</t>
+  </si>
+  <si>
+    <t>558.0</t>
+  </si>
+  <si>
+    <t>1035697.0</t>
+  </si>
+  <si>
+    <t>1296244.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>1008.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>825.0</t>
+  </si>
+  <si>
+    <t>451.0</t>
+  </si>
+  <si>
+    <t>4054.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>1443.0</t>
+  </si>
+  <si>
+    <t>25418.0</t>
+  </si>
+  <si>
+    <t>15923.0</t>
+  </si>
+  <si>
+    <t>9495.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>58589.0</t>
+  </si>
+  <si>
+    <t>56469.0</t>
+  </si>
+  <si>
+    <t>2120.0</t>
+  </si>
+  <si>
+    <t>7750.0</t>
+  </si>
+  <si>
+    <t>8172.0</t>
+  </si>
+  <si>
+    <t>-422.0</t>
+  </si>
+  <si>
+    <t>1211967.0</t>
+  </si>
+  <si>
+    <t>1497322.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>1202.0</t>
+  </si>
+  <si>
+    <t>1019.0</t>
+  </si>
+  <si>
+    <t>557.0</t>
+  </si>
+  <si>
+    <t>6597.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>841.0</t>
+  </si>
+  <si>
+    <t>367.0</t>
+  </si>
+  <si>
+    <t>474.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>2121.0</t>
+  </si>
+  <si>
+    <t>36576.0</t>
+  </si>
+  <si>
+    <t>24620.0</t>
+  </si>
+  <si>
+    <t>11956.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>104915.0</t>
+  </si>
+  <si>
+    <t>98063.0</t>
+  </si>
+  <si>
+    <t>6852.0</t>
+  </si>
+  <si>
+    <t>19525.0</t>
+  </si>
+  <si>
+    <t>17415.0</t>
+  </si>
+  <si>
+    <t>2110.0</t>
+  </si>
+  <si>
+    <t>2088284.0</t>
+  </si>
+  <si>
+    <t>2557779.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>1707.0</t>
+  </si>
+  <si>
+    <t>324.0</t>
+  </si>
+  <si>
+    <t>1383.0</t>
+  </si>
+  <si>
+    <t>427.0</t>
+  </si>
+  <si>
+    <t>7028.0</t>
+  </si>
+  <si>
+    <t>326.0</t>
+  </si>
+  <si>
+    <t>588.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>2196.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>37780.0</t>
+  </si>
+  <si>
+    <t>24621.0</t>
+  </si>
+  <si>
+    <t>13159.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>97627.0</t>
+  </si>
+  <si>
+    <t>96326.0</t>
+  </si>
+  <si>
+    <t>1301.0</t>
+  </si>
+  <si>
+    <t>14311.0</t>
+  </si>
+  <si>
+    <t>14334.0</t>
+  </si>
+  <si>
+    <t>-23.0</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>1926559.0</t>
+  </si>
+  <si>
+    <t>2485617.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>1785.0</t>
+  </si>
+  <si>
+    <t>308.0</t>
+  </si>
+  <si>
+    <t>1477.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>4891.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>1395.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>32406.0</t>
+  </si>
+  <si>
+    <t>20120.0</t>
+  </si>
+  <si>
+    <t>12286.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>84461.0</t>
+  </si>
+  <si>
+    <t>80371.0</t>
+  </si>
+  <si>
+    <t>4090.0</t>
+  </si>
+  <si>
+    <t>8453.0</t>
+  </si>
+  <si>
+    <t>8646.0</t>
+  </si>
+  <si>
+    <t>-193.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>1382853.0</t>
+  </si>
+  <si>
+    <t>1720047.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>1703.0</t>
+  </si>
+  <si>
+    <t>1416.0</t>
+  </si>
+  <si>
+    <t>493.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>283.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>1344.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>24873.0</t>
+  </si>
+  <si>
+    <t>14319.0</t>
+  </si>
+  <si>
+    <t>10554.0</t>
+  </si>
+  <si>
+    <t>66152.0</t>
+  </si>
+  <si>
+    <t>60748.0</t>
+  </si>
+  <si>
+    <t>5404.0</t>
+  </si>
+  <si>
+    <t>5264.0</t>
+  </si>
+  <si>
+    <t>5389.0</t>
+  </si>
+  <si>
+    <t>-125.0</t>
+  </si>
+  <si>
+    <t>1249460.0</t>
+  </si>
+  <si>
+    <t>1561406.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>2614.0</t>
+  </si>
+  <si>
+    <t>502.0</t>
+  </si>
+  <si>
+    <t>2112.0</t>
+  </si>
+  <si>
+    <t>421.0</t>
+  </si>
+  <si>
+    <t>9613.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>1068.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>695.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>2751.0</t>
+  </si>
+  <si>
+    <t>42646.0</t>
+  </si>
+  <si>
+    <t>26298.0</t>
+  </si>
+  <si>
+    <t>16348.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>112650.0</t>
+  </si>
+  <si>
+    <t>106140.0</t>
+  </si>
+  <si>
+    <t>6510.0</t>
+  </si>
+  <si>
+    <t>12576.0</t>
+  </si>
+  <si>
+    <t>12425.0</t>
+  </si>
+  <si>
+    <t>2266100.0</t>
+  </si>
+  <si>
+    <t>2835492.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>3438.0</t>
+  </si>
+  <si>
+    <t>675.0</t>
+  </si>
+  <si>
+    <t>2763.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>10338.0</t>
+  </si>
+  <si>
+    <t>1284.0</t>
+  </si>
+  <si>
+    <t>378.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>2856.0</t>
+  </si>
+  <si>
+    <t>43018.0</t>
+  </si>
+  <si>
+    <t>24257.0</t>
+  </si>
+  <si>
+    <t>18761.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>115604.0</t>
+  </si>
+  <si>
+    <t>109951.0</t>
+  </si>
+  <si>
+    <t>5653.0</t>
+  </si>
+  <si>
+    <t>8829.0</t>
+  </si>
+  <si>
+    <t>8369.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>2199876.0</t>
+  </si>
+  <si>
+    <t>2761541.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>2925.0</t>
+  </si>
+  <si>
+    <t>507.0</t>
+  </si>
+  <si>
+    <t>2418.0</t>
+  </si>
+  <si>
+    <t>477.0</t>
+  </si>
+  <si>
+    <t>13272.0</t>
+  </si>
+  <si>
+    <t>1463.0</t>
+  </si>
+  <si>
+    <t>448.0</t>
+  </si>
+  <si>
+    <t>1015.0</t>
+  </si>
+  <si>
+    <t>227.0</t>
+  </si>
+  <si>
+    <t>3804.0</t>
+  </si>
+  <si>
+    <t>62180.0</t>
+  </si>
+  <si>
+    <t>34314.0</t>
+  </si>
+  <si>
+    <t>27866.0</t>
+  </si>
+  <si>
+    <t>182179.0</t>
+  </si>
+  <si>
+    <t>194050.0</t>
+  </si>
+  <si>
+    <t>-11871.0</t>
+  </si>
+  <si>
+    <t>15927.0</t>
+  </si>
+  <si>
+    <t>14274.0</t>
+  </si>
+  <si>
+    <t>1653.0</t>
+  </si>
+  <si>
+    <t>2707436.0</t>
+  </si>
+  <si>
+    <t>3617744.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>2954.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>2434.0</t>
+  </si>
+  <si>
+    <t>468.0</t>
+  </si>
+  <si>
+    <t>11469.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
   </si>
   <si>
     <t>1114.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>950.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>contrats</t>
-  </si>
-  <si>
-    <t>Plan 1 jeune 1 solution</t>
-  </si>
-  <si>
-    <t>Nombre de recrutements de jeunes</t>
-  </si>
-  <si>
-    <t>nombre-recrutements-jeunes</t>
-  </si>
-  <si>
-    <t>2812.0</t>
-  </si>
-  <si>
-    <t>2020-11-30</t>
-  </si>
-  <si>
-    <t>2620.0</t>
-  </si>
-  <si>
-    <t>2018-11-30</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>recrutements dans l'année</t>
-  </si>
-  <si>
-    <t>Supprimer la taxe d’habitation sur les résidences principales</t>
-  </si>
-  <si>
-    <t>Nombre de bénéficiaires totalement exonérés</t>
-  </si>
-  <si>
-    <t>nb-beneficiaires-suppression-taxe-habitation</t>
-  </si>
-  <si>
-    <t>122819.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>152451.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>bénéficiaires</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>863.0</t>
-  </si>
-  <si>
-    <t>212.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>2701.0</t>
-  </si>
-  <si>
-    <t>2991.0</t>
-  </si>
-  <si>
-    <t>-290.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>127303.0</t>
-  </si>
-  <si>
-    <t>159023.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>658.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>1852.0</t>
-  </si>
-  <si>
-    <t>2116.0</t>
-  </si>
-  <si>
-    <t>-264.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>39525.0</t>
-  </si>
-  <si>
-    <t>54454.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>3555.0</t>
-  </si>
-  <si>
-    <t>3312.0</t>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>759.0</t>
+  </si>
+  <si>
+    <t>36583.0</t>
+  </si>
+  <si>
+    <t>20713.0</t>
+  </si>
+  <si>
+    <t>15870.0</t>
+  </si>
+  <si>
+    <t>102479.0</t>
+  </si>
+  <si>
+    <t>103109.0</t>
+  </si>
+  <si>
+    <t>-630.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>8219.0</t>
+  </si>
+  <si>
+    <t>8147.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>1810108.0</t>
+  </si>
+  <si>
+    <t>2380074.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>296.0</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>385.0</t>
+  </si>
+  <si>
+    <t>910.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
   </si>
   <si>
     <t>243.0</t>
   </si>
   <si>
-    <t>12728.0</t>
-  </si>
-  <si>
-    <t>9663.0</t>
-  </si>
-  <si>
-    <t>3065.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>271488.0</t>
-  </si>
-  <si>
-    <t>331029.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
+    <t>1440.0</t>
+  </si>
+  <si>
+    <t>-1440.0</t>
+  </si>
+  <si>
+    <t>-100.0</t>
+  </si>
+  <si>
+    <t>4700.0</t>
+  </si>
+  <si>
+    <t>4361.0</t>
+  </si>
+  <si>
+    <t>339.0</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
   </si>
   <si>
     <t>64.0</t>
   </si>
   <si>
-    <t>9475.0</t>
-  </si>
-  <si>
-    <t>15588.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>77454.0</t>
-  </si>
-  <si>
-    <t>55628.0</t>
-  </si>
-  <si>
-    <t>21826.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>257258.0</t>
-  </si>
-  <si>
-    <t>288298.0</t>
-  </si>
-  <si>
-    <t>-31040.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>3253287.0</t>
-  </si>
-  <si>
-    <t>5194423.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>15633.0</t>
-  </si>
-  <si>
-    <t>13490.0</t>
-  </si>
-  <si>
-    <t>2143.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>34475.0</t>
-  </si>
-  <si>
-    <t>32934.0</t>
-  </si>
-  <si>
-    <t>1541.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>934294.0</t>
-  </si>
-  <si>
-    <t>1170480.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>16309.0</t>
-  </si>
-  <si>
-    <t>13744.0</t>
-  </si>
-  <si>
-    <t>2565.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>36954.0</t>
-  </si>
-  <si>
-    <t>35566.0</t>
-  </si>
-  <si>
-    <t>1388.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>1026244.0</t>
-  </si>
-  <si>
-    <t>1288820.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>19509.0</t>
-  </si>
-  <si>
-    <t>15923.0</t>
-  </si>
-  <si>
-    <t>3586.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>45062.0</t>
-  </si>
-  <si>
-    <t>41972.0</t>
-  </si>
-  <si>
-    <t>3090.0</t>
-  </si>
-  <si>
-    <t>1200171.0</t>
-  </si>
-  <si>
-    <t>1488482.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>28090.0</t>
-  </si>
-  <si>
-    <t>24620.0</t>
-  </si>
-  <si>
-    <t>3470.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>77634.0</t>
-  </si>
-  <si>
-    <t>71914.0</t>
-  </si>
-  <si>
-    <t>5720.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>2073273.0</t>
-  </si>
-  <si>
-    <t>2545021.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>30827.0</t>
-  </si>
-  <si>
-    <t>24621.0</t>
-  </si>
-  <si>
-    <t>6206.0</t>
-  </si>
-  <si>
-    <t>75692.0</t>
-  </si>
-  <si>
-    <t>72177.0</t>
-  </si>
-  <si>
-    <t>3515.0</t>
-  </si>
-  <si>
-    <t>1900968.0</t>
-  </si>
-  <si>
-    <t>2465391.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>24232.0</t>
-  </si>
-  <si>
-    <t>20120.0</t>
-  </si>
-  <si>
-    <t>4112.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>65073.0</t>
-  </si>
-  <si>
-    <t>59996.0</t>
-  </si>
-  <si>
-    <t>5077.0</t>
-  </si>
-  <si>
-    <t>1360883.0</t>
-  </si>
-  <si>
-    <t>1698756.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>17323.0</t>
-  </si>
-  <si>
-    <t>14319.0</t>
-  </si>
-  <si>
-    <t>3004.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>50815.0</t>
-  </si>
-  <si>
-    <t>44936.0</t>
-  </si>
-  <si>
-    <t>5879.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>1235059.0</t>
-  </si>
-  <si>
-    <t>1546557.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>31185.0</t>
-  </si>
-  <si>
-    <t>26298.0</t>
-  </si>
-  <si>
-    <t>4887.0</t>
-  </si>
-  <si>
-    <t>85893.0</t>
-  </si>
-  <si>
-    <t>77781.0</t>
-  </si>
-  <si>
-    <t>8112.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2242862.0</t>
-  </si>
-  <si>
-    <t>2811803.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>29942.0</t>
-  </si>
-  <si>
-    <t>24257.0</t>
-  </si>
-  <si>
-    <t>5685.0</t>
-  </si>
-  <si>
-    <t>87564.0</t>
-  </si>
-  <si>
-    <t>79906.0</t>
-  </si>
-  <si>
-    <t>7658.0</t>
-  </si>
-  <si>
-    <t>2174186.0</t>
-  </si>
-  <si>
-    <t>2736144.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>44448.0</t>
-  </si>
-  <si>
-    <t>34314.0</t>
-  </si>
-  <si>
-    <t>10134.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>137045.0</t>
-  </si>
-  <si>
-    <t>131873.0</t>
-  </si>
-  <si>
-    <t>5172.0</t>
-  </si>
-  <si>
-    <t>2667824.0</t>
-  </si>
-  <si>
-    <t>3582395.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>25086.0</t>
-  </si>
-  <si>
-    <t>20713.0</t>
-  </si>
-  <si>
-    <t>4373.0</t>
-  </si>
-  <si>
-    <t>75413.0</t>
-  </si>
-  <si>
-    <t>72616.0</t>
-  </si>
-  <si>
-    <t>2797.0</t>
-  </si>
-  <si>
-    <t>1791667.0</t>
-  </si>
-  <si>
-    <t>2364756.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>1695.0</t>
-  </si>
-  <si>
-    <t>1440.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>3406.0</t>
-  </si>
-  <si>
-    <t>3072.0</t>
-  </si>
-  <si>
-    <t>334.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>101810.0</t>
-  </si>
-  <si>
-    <t>132143.0</t>
+    <t>103384.0</t>
+  </si>
+  <si>
+    <t>134528.0</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,28 +1892,22 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1199,36 +1916,42 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1237,31 +1960,192 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +2155,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1335,113 +2219,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1515,113 +2563,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" t="s">
+        <v>294</v>
+      </c>
+      <c r="M3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" t="s">
+        <v>303</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" t="s">
+        <v>310</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +2843,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1695,113 +2907,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L4" t="s">
+        <v>326</v>
+      </c>
+      <c r="M4" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" t="s">
+        <v>331</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" t="s">
+        <v>338</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +3187,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1875,113 +3251,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" t="s">
+        <v>354</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" t="s">
+        <v>338</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +3531,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2055,113 +3595,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" t="s">
+        <v>373</v>
+      </c>
+      <c r="M3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K4" t="s">
+        <v>378</v>
+      </c>
+      <c r="L4" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K5" t="s">
+        <v>383</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +3875,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2235,113 +3939,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>392</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>393</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>402</v>
+      </c>
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" t="s">
+        <v>406</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" t="s">
+        <v>414</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +4219,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2415,113 +4283,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>417</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K4" t="s">
+        <v>426</v>
+      </c>
+      <c r="L4" t="s">
+        <v>427</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" t="s">
         <v>209</v>
       </c>
-      <c r="F4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>437</v>
+      </c>
+      <c r="L8" t="s">
+        <v>438</v>
+      </c>
+      <c r="M8" t="s">
+        <v>439</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +4563,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2595,113 +4627,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" t="s">
+        <v>446</v>
+      </c>
+      <c r="L3" t="s">
+        <v>447</v>
+      </c>
+      <c r="M3" t="s">
+        <v>448</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>402</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" t="s">
+        <v>406</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>457</v>
+      </c>
+      <c r="K6" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>462</v>
+      </c>
+      <c r="L8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M8" t="s">
+        <v>464</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +4907,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2775,113 +4971,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" t="s">
-        <v>236</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K3" t="s">
+        <v>469</v>
+      </c>
+      <c r="L3" t="s">
+        <v>470</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K3" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" t="s">
+        <v>472</v>
+      </c>
+      <c r="M4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K5" t="s">
+        <v>475</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>477</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K7" t="s">
+        <v>269</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>482</v>
+      </c>
+      <c r="L8" t="s">
+        <v>483</v>
+      </c>
+      <c r="M8" t="s">
+        <v>406</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +5251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2955,113 +5315,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +5595,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3135,113 +5659,271 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="s">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3251,7 +5933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3315,113 +5997,274 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +6274,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3495,72 +6338,262 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J4" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +6603,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3634,113 +6667,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +6947,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3814,113 +7011,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +7291,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,113 +7355,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4110,7 +7635,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4174,113 +7699,277 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/economie-emploi/regions/barometre-resultats-relance-emploi-economie-regions-synthese.xlsx
+++ b/secteur-action-publique/economie-emploi/regions/barometre-resultats-relance-emploi-economie-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="588">
   <si>
     <t>mesure</t>
   </si>
@@ -96,7 +96,7 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>2021-11-30</t>
+    <t>2021-12-31</t>
   </si>
   <si>
     <t>0.0</t>
@@ -120,7 +120,7 @@
     <t>540.0</t>
   </si>
   <si>
-    <t>2021-12-31</t>
+    <t>2022-02-28</t>
   </si>
   <si>
     <t>2020-09-30</t>
@@ -144,1615 +144,1639 @@
     <t>nb-diagnostics-individualises</t>
   </si>
   <si>
-    <t>177.0</t>
+    <t>183.0</t>
   </si>
   <si>
     <t>255.0</t>
   </si>
   <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>Développer l’apprentissage</t>
+  </si>
+  <si>
+    <t>Nombre de contrats d’apprentissage</t>
+  </si>
+  <si>
+    <t>nombre-contrats-apprentissage</t>
+  </si>
+  <si>
+    <t>2186.0</t>
+  </si>
+  <si>
+    <t>834.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>1352.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>1446.0</t>
+  </si>
+  <si>
+    <t>contrats</t>
+  </si>
+  <si>
+    <t>Plan 1 jeune 1 solution</t>
+  </si>
+  <si>
+    <t>Nombre de recrutements de jeunes</t>
+  </si>
+  <si>
+    <t>nombre-recrutements-jeunes</t>
+  </si>
+  <si>
+    <t>7098.0</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>6347.0</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>751.0</t>
+  </si>
+  <si>
+    <t>Recrutements depuis le mois d'août précédent</t>
+  </si>
+  <si>
+    <t>Pacte d'ambition pour l'insertion par l'activité économique</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires en structures d'insertion par l'activité économique</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-siae</t>
+  </si>
+  <si>
+    <t>973.0</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>639.0</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>334.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>1726.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>bénéficiaires *</t>
+  </si>
+  <si>
+    <t>Supprimer la taxe d’habitation sur les résidences principales</t>
+  </si>
+  <si>
+    <t>Nombre de bénéficiaires totalement exonérés</t>
+  </si>
+  <si>
+    <t>nb-beneficiaires-suppression-taxe-habitation</t>
+  </si>
+  <si>
+    <t>121583.0</t>
+  </si>
+  <si>
+    <t>151745.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>bénéficiaires</t>
+  </si>
+  <si>
+    <t>Renforcer les compétences de la nation - plan d'investissement dans les compétences</t>
+  </si>
+  <si>
+    <t>Nombre d’entrées en formation pour les publics éloignés de l’emploi (jeunes, demandeurs d’emploi faiblement qualifiés, actifs en insertion, …)</t>
+  </si>
+  <si>
+    <t>nb-formation-pic</t>
+  </si>
+  <si>
+    <t>11690.0</t>
+  </si>
+  <si>
+    <t>5800.0</t>
+  </si>
+  <si>
+    <t>5890.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>8400.0</t>
+  </si>
+  <si>
+    <t>formations</t>
+  </si>
+  <si>
+    <t>Garantir l'égalité professionnelle entre les femmes et les hommes</t>
+  </si>
+  <si>
+    <t>Part des entreprises respectant leur obligation de publier l’index égalité professionnelle</t>
+  </si>
+  <si>
+    <t>tx-entreprise-egalite-pro</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>-64.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>1579.0</t>
+  </si>
+  <si>
+    <t>873.0</t>
+  </si>
+  <si>
+    <t>706.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>998.0</t>
+  </si>
+  <si>
+    <t>7319.0</t>
+  </si>
+  <si>
+    <t>6773.0</t>
+  </si>
+  <si>
+    <t>546.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1774.0</t>
+  </si>
+  <si>
+    <t>1534.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>3010.0</t>
+  </si>
+  <si>
+    <t>125571.0</t>
+  </si>
+  <si>
+    <t>158173.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>11539.0</t>
+  </si>
+  <si>
+    <t>7600.0</t>
+  </si>
+  <si>
+    <t>3939.0</t>
+  </si>
+  <si>
+    <t>7300.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>-15.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
     <t>69.0</t>
   </si>
   <si>
-    <t>Développer l’apprentissage</t>
-  </si>
-  <si>
-    <t>Nombre de contrats d’apprentissage</t>
-  </si>
-  <si>
-    <t>nombre-contrats-apprentissage</t>
-  </si>
-  <si>
-    <t>1179.0</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>834.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>345.0</t>
+    <t>1181.0</t>
+  </si>
+  <si>
+    <t>401.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>636.0</t>
+  </si>
+  <si>
+    <t>4849.0</t>
+  </si>
+  <si>
+    <t>4593.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1174.0</t>
+  </si>
+  <si>
+    <t>949.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>638.0</t>
+  </si>
+  <si>
+    <t>39780.0</t>
+  </si>
+  <si>
+    <t>55789.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>5731.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>4231.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>6100.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>836.0</t>
+  </si>
+  <si>
+    <t>370.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>12301.0</t>
+  </si>
+  <si>
+    <t>3395.0</t>
+  </si>
+  <si>
+    <t>8906.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>7907.0</t>
+  </si>
+  <si>
+    <t>28870.0</t>
+  </si>
+  <si>
+    <t>21359.0</t>
+  </si>
+  <si>
+    <t>7511.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>3381.0</t>
+  </si>
+  <si>
+    <t>1879.0</t>
+  </si>
+  <si>
+    <t>1502.0</t>
+  </si>
+  <si>
+    <t>4897.0</t>
+  </si>
+  <si>
+    <t>272280.0</t>
+  </si>
+  <si>
+    <t>333532.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>30205.0</t>
+  </si>
+  <si>
+    <t>14300.0</t>
+  </si>
+  <si>
+    <t>15905.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>25000.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>1757.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>656.0</t>
+  </si>
+  <si>
+    <t>1691.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>6591.0</t>
+  </si>
+  <si>
+    <t>11644.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>4318.0</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>2618.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>12400.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>889.0</t>
+  </si>
+  <si>
+    <t>20734.0</t>
+  </si>
+  <si>
+    <t>29499.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>5514.0</t>
+  </si>
+  <si>
+    <t>5649.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>167623.0</t>
+  </si>
+  <si>
+    <t>64155.0</t>
+  </si>
+  <si>
+    <t>103468.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>113790.0</t>
+  </si>
+  <si>
+    <t>516660.0</t>
+  </si>
+  <si>
+    <t>576539.0</t>
+  </si>
+  <si>
+    <t>-59879.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>17437.0</t>
+  </si>
+  <si>
+    <t>13230.0</t>
+  </si>
+  <si>
+    <t>4207.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>29594.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>3300887.0</t>
+  </si>
+  <si>
+    <t>5233253.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>290588.0</t>
+  </si>
+  <si>
+    <t>98000.0</t>
+  </si>
+  <si>
+    <t>192588.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>221600.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>523.0</t>
+  </si>
+  <si>
+    <t>3403.0</t>
+  </si>
+  <si>
+    <t>3134.0</t>
+  </si>
+  <si>
+    <t>884.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>24525.0</t>
+  </si>
+  <si>
+    <t>13468.0</t>
+  </si>
+  <si>
+    <t>11057.0</t>
+  </si>
+  <si>
+    <t>18116.0</t>
+  </si>
+  <si>
+    <t>67910.0</t>
+  </si>
+  <si>
+    <t>66019.0</t>
+  </si>
+  <si>
+    <t>1891.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>6117.0</t>
+  </si>
+  <si>
+    <t>4967.0</t>
+  </si>
+  <si>
+    <t>1150.0</t>
+  </si>
+  <si>
+    <t>8370.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>943945.0</t>
+  </si>
+  <si>
+    <t>1176371.0</t>
+  </si>
+  <si>
+    <t>52266.0</t>
+  </si>
+  <si>
+    <t>33900.0</t>
+  </si>
+  <si>
+    <t>18366.0</t>
+  </si>
+  <si>
+    <t>40400.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>797.0</t>
+  </si>
+  <si>
+    <t>3613.0</t>
+  </si>
+  <si>
+    <t>3630.0</t>
+  </si>
+  <si>
+    <t>1134.0</t>
+  </si>
+  <si>
+    <t>1161.0</t>
+  </si>
+  <si>
+    <t>26223.0</t>
+  </si>
+  <si>
+    <t>13807.0</t>
+  </si>
+  <si>
+    <t>12416.0</t>
+  </si>
+  <si>
+    <t>20149.0</t>
+  </si>
+  <si>
+    <t>73663.0</t>
+  </si>
+  <si>
+    <t>72679.0</t>
+  </si>
+  <si>
+    <t>984.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>9300.0</t>
+  </si>
+  <si>
+    <t>7216.0</t>
+  </si>
+  <si>
+    <t>2084.0</t>
+  </si>
+  <si>
+    <t>15480.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>1035697.0</t>
+  </si>
+  <si>
+    <t>1296244.0</t>
+  </si>
+  <si>
+    <t>56758.0</t>
+  </si>
+  <si>
+    <t>28600.0</t>
+  </si>
+  <si>
+    <t>28158.0</t>
+  </si>
+  <si>
+    <t>40300.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>616.0</t>
+  </si>
+  <si>
+    <t>3550.0</t>
+  </si>
+  <si>
+    <t>4054.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>1420.0</t>
+  </si>
+  <si>
+    <t>1440.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>35429.0</t>
+  </si>
+  <si>
+    <t>16259.0</t>
+  </si>
+  <si>
+    <t>19170.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>26462.0</t>
+  </si>
+  <si>
+    <t>91625.0</t>
+  </si>
+  <si>
+    <t>87174.0</t>
+  </si>
+  <si>
+    <t>4451.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>10136.0</t>
+  </si>
+  <si>
+    <t>8173.0</t>
+  </si>
+  <si>
+    <t>1963.0</t>
+  </si>
+  <si>
+    <t>14604.0</t>
+  </si>
+  <si>
+    <t>1211967.0</t>
+  </si>
+  <si>
+    <t>1497322.0</t>
+  </si>
+  <si>
+    <t>73839.0</t>
+  </si>
+  <si>
+    <t>43300.0</t>
+  </si>
+  <si>
+    <t>30539.0</t>
+  </si>
+  <si>
+    <t>68100.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>812.0</t>
+  </si>
+  <si>
+    <t>5709.0</t>
+  </si>
+  <si>
+    <t>6597.0</t>
+  </si>
+  <si>
+    <t>2063.0</t>
+  </si>
+  <si>
+    <t>2121.0</t>
+  </si>
+  <si>
+    <t>56967.0</t>
+  </si>
+  <si>
+    <t>24143.0</t>
+  </si>
+  <si>
+    <t>32824.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>38182.0</t>
+  </si>
+  <si>
+    <t>165102.0</t>
+  </si>
+  <si>
+    <t>149561.0</t>
+  </si>
+  <si>
+    <t>15541.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>22788.0</t>
+  </si>
+  <si>
+    <t>17417.0</t>
+  </si>
+  <si>
+    <t>5371.0</t>
+  </si>
+  <si>
+    <t>34217.0</t>
+  </si>
+  <si>
+    <t>2088284.0</t>
+  </si>
+  <si>
+    <t>2557779.0</t>
+  </si>
+  <si>
+    <t>156574.0</t>
+  </si>
+  <si>
+    <t>79600.0</t>
+  </si>
+  <si>
+    <t>76974.0</t>
+  </si>
+  <si>
+    <t>123600.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>720.0</t>
+  </si>
+  <si>
+    <t>7586.0</t>
+  </si>
+  <si>
+    <t>7028.0</t>
+  </si>
+  <si>
+    <t>2164.0</t>
+  </si>
+  <si>
+    <t>2196.0</t>
+  </si>
+  <si>
+    <t>51572.0</t>
+  </si>
+  <si>
+    <t>25587.0</t>
+  </si>
+  <si>
+    <t>25985.0</t>
+  </si>
+  <si>
+    <t>38983.0</t>
+  </si>
+  <si>
+    <t>151929.0</t>
+  </si>
+  <si>
+    <t>146014.0</t>
+  </si>
+  <si>
+    <t>5915.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>16891.0</t>
+  </si>
+  <si>
+    <t>14337.0</t>
+  </si>
+  <si>
+    <t>2554.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>24937.0</t>
+  </si>
+  <si>
+    <t>1926559.0</t>
+  </si>
+  <si>
+    <t>2485617.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>115959.0</t>
+  </si>
+  <si>
+    <t>69800.0</t>
+  </si>
+  <si>
+    <t>46159.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>101900.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>1093.0</t>
+  </si>
+  <si>
+    <t>6980.0</t>
+  </si>
+  <si>
+    <t>4891.0</t>
+  </si>
+  <si>
+    <t>1259.0</t>
+  </si>
+  <si>
+    <t>1242.0</t>
+  </si>
+  <si>
+    <t>45383.0</t>
+  </si>
+  <si>
+    <t>19742.0</t>
+  </si>
+  <si>
+    <t>25641.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>33253.0</t>
+  </si>
+  <si>
+    <t>129437.0</t>
+  </si>
+  <si>
+    <t>123117.0</t>
+  </si>
+  <si>
+    <t>6320.0</t>
+  </si>
+  <si>
+    <t>10331.0</t>
+  </si>
+  <si>
+    <t>8646.0</t>
+  </si>
+  <si>
+    <t>1685.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>13783.0</t>
+  </si>
+  <si>
+    <t>1382853.0</t>
+  </si>
+  <si>
+    <t>1720047.0</t>
+  </si>
+  <si>
+    <t>80910.0</t>
+  </si>
+  <si>
+    <t>47200.0</t>
+  </si>
+  <si>
+    <t>33710.0</t>
+  </si>
+  <si>
+    <t>67200.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>605.0</t>
+  </si>
+  <si>
+    <t>6561.0</t>
+  </si>
+  <si>
+    <t>4294.0</t>
+  </si>
+  <si>
+    <t>1225.0</t>
+  </si>
+  <si>
+    <t>1344.0</t>
+  </si>
+  <si>
+    <t>35753.0</t>
+  </si>
+  <si>
+    <t>14196.0</t>
+  </si>
+  <si>
+    <t>21557.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>26065.0</t>
+  </si>
+  <si>
+    <t>105098.0</t>
+  </si>
+  <si>
+    <t>96199.0</t>
+  </si>
+  <si>
+    <t>8899.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>6113.0</t>
+  </si>
+  <si>
+    <t>5390.0</t>
+  </si>
+  <si>
+    <t>723.0</t>
+  </si>
+  <si>
+    <t>8797.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>1249460.0</t>
+  </si>
+  <si>
+    <t>1561406.0</t>
+  </si>
+  <si>
+    <t>86635.0</t>
+  </si>
+  <si>
+    <t>47100.0</t>
+  </si>
+  <si>
+    <t>39535.0</t>
+  </si>
+  <si>
+    <t>50200.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>919.0</t>
+  </si>
+  <si>
+    <t>11955.0</t>
+  </si>
+  <si>
+    <t>9613.0</t>
+  </si>
+  <si>
+    <t>2884.0</t>
+  </si>
+  <si>
+    <t>2754.0</t>
+  </si>
+  <si>
+    <t>60624.0</t>
+  </si>
+  <si>
+    <t>26512.0</t>
+  </si>
+  <si>
+    <t>34112.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>44418.0</t>
+  </si>
+  <si>
+    <t>185773.0</t>
+  </si>
+  <si>
+    <t>170711.0</t>
+  </si>
+  <si>
+    <t>15062.0</t>
+  </si>
+  <si>
+    <t>15901.0</t>
+  </si>
+  <si>
+    <t>12426.0</t>
+  </si>
+  <si>
+    <t>3475.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>20905.0</t>
   </si>
   <si>
     <t>41.0</t>
   </si>
   <si>
-    <t>1446.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>contrats</t>
-  </si>
-  <si>
-    <t>Plan 1 jeune 1 solution</t>
-  </si>
-  <si>
-    <t>Nombre de recrutements de jeunes</t>
-  </si>
-  <si>
-    <t>nombre-recrutements-jeunes</t>
-  </si>
-  <si>
-    <t>7080.0</t>
-  </si>
-  <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
-    <t>6345.0</t>
-  </si>
-  <si>
-    <t>2019-07-31</t>
-  </si>
-  <si>
-    <t>735.0</t>
-  </si>
-  <si>
-    <t>Recrutements de jeunes</t>
-  </si>
-  <si>
-    <t>Pacte d'ambition pour l'insertion par l'activité économique</t>
-  </si>
-  <si>
-    <t>Nombre de bénéficiaires en structures d'insertion par l'activité économique</t>
-  </si>
-  <si>
-    <t>nb-beneficiaires-siae</t>
-  </si>
-  <si>
-    <t>585.0</t>
-  </si>
-  <si>
-    <t>639.0</t>
-  </si>
-  <si>
-    <t>2017-01-31</t>
-  </si>
-  <si>
-    <t>-54.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>1726.0</t>
-  </si>
-  <si>
-    <t>bénéficiaires *</t>
-  </si>
-  <si>
-    <t>Supprimer la taxe d’habitation sur les résidences principales</t>
-  </si>
-  <si>
-    <t>Nombre de bénéficiaires totalement exonérés</t>
-  </si>
-  <si>
-    <t>nb-beneficiaires-suppression-taxe-habitation</t>
-  </si>
-  <si>
-    <t>121583.0</t>
-  </si>
-  <si>
-    <t>151745.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>bénéficiaires</t>
-  </si>
-  <si>
-    <t>Renforcer les compétences de la nation - plan d'investissement dans les compétences</t>
-  </si>
-  <si>
-    <t>Nombre d’entrées en formation pour les publics éloignés de l’emploi (jeunes, demandeurs d’emploi faiblement qualifiés, actifs en insertion, …)</t>
-  </si>
-  <si>
-    <t>nb-formation-pic</t>
-  </si>
-  <si>
-    <t>11690.0</t>
-  </si>
-  <si>
-    <t>5800.0</t>
-  </si>
-  <si>
-    <t>5890.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>8400.0</t>
-  </si>
-  <si>
-    <t>formations</t>
-  </si>
-  <si>
-    <t>Garantir l'égalité professionnelle entre les femmes et les hommes</t>
-  </si>
-  <si>
-    <t>Part des entreprises respectant leur obligation de publier l’index égalité professionnelle</t>
-  </si>
-  <si>
-    <t>tx-entreprise-egalite-pro</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>-64.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>960.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>207.0</t>
-  </si>
-  <si>
-    <t>225.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>637.0</t>
-  </si>
-  <si>
-    <t>873.0</t>
-  </si>
-  <si>
-    <t>-236.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>998.0</t>
-  </si>
-  <si>
-    <t>7318.0</t>
-  </si>
-  <si>
-    <t>6780.0</t>
-  </si>
-  <si>
-    <t>538.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1315.0</t>
-  </si>
-  <si>
-    <t>1534.0</t>
-  </si>
-  <si>
-    <t>-219.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>3010.0</t>
-  </si>
-  <si>
-    <t>125571.0</t>
-  </si>
-  <si>
-    <t>158173.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>11539.0</t>
-  </si>
-  <si>
-    <t>7600.0</t>
-  </si>
-  <si>
-    <t>3939.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>7300.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>-15.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>689.0</t>
-  </si>
-  <si>
-    <t>401.0</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>636.0</t>
-  </si>
-  <si>
-    <t>4845.0</t>
-  </si>
-  <si>
-    <t>4606.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>734.0</t>
-  </si>
-  <si>
-    <t>509.0</t>
-  </si>
-  <si>
-    <t>226.0</t>
-  </si>
-  <si>
-    <t>638.0</t>
-  </si>
-  <si>
-    <t>39780.0</t>
-  </si>
-  <si>
-    <t>55789.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>5731.0</t>
-  </si>
-  <si>
-    <t>1500.0</t>
-  </si>
-  <si>
-    <t>4231.0</t>
-  </si>
-  <si>
-    <t>282.0</t>
-  </si>
-  <si>
-    <t>6100.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>343.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>8610.0</t>
-  </si>
-  <si>
-    <t>3395.0</t>
-  </si>
-  <si>
-    <t>5215.0</t>
-  </si>
-  <si>
-    <t>154.0</t>
-  </si>
-  <si>
-    <t>7907.0</t>
-  </si>
-  <si>
-    <t>28886.0</t>
-  </si>
-  <si>
-    <t>21348.0</t>
-  </si>
-  <si>
-    <t>7538.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>2847.0</t>
-  </si>
-  <si>
-    <t>1879.0</t>
-  </si>
-  <si>
-    <t>968.0</t>
-  </si>
-  <si>
-    <t>4897.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>272280.0</t>
-  </si>
-  <si>
-    <t>333532.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>30205.0</t>
-  </si>
-  <si>
-    <t>14300.0</t>
-  </si>
-  <si>
-    <t>15905.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>25000.0</t>
-  </si>
-  <si>
-    <t>203.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>957.0</t>
-  </si>
-  <si>
-    <t>269.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>533.0</t>
-  </si>
-  <si>
-    <t>1691.0</t>
-  </si>
-  <si>
-    <t>6591.0</t>
-  </si>
-  <si>
-    <t>11644.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>4318.0</t>
-  </si>
-  <si>
-    <t>1700.0</t>
-  </si>
-  <si>
-    <t>2618.0</t>
-  </si>
-  <si>
-    <t>12400.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>889.0</t>
-  </si>
-  <si>
-    <t>20694.0</t>
-  </si>
-  <si>
-    <t>29499.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>4799.0</t>
-  </si>
-  <si>
-    <t>5649.0</t>
-  </si>
-  <si>
-    <t>121709.0</t>
-  </si>
-  <si>
-    <t>64155.0</t>
-  </si>
-  <si>
-    <t>57554.0</t>
-  </si>
-  <si>
-    <t>113790.0</t>
-  </si>
-  <si>
-    <t>516636.0</t>
-  </si>
-  <si>
-    <t>576587.0</t>
-  </si>
-  <si>
-    <t>-59951.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>15608.0</t>
-  </si>
-  <si>
-    <t>13229.0</t>
-  </si>
-  <si>
-    <t>2379.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>29594.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>3300887.0</t>
-  </si>
-  <si>
-    <t>5233253.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>290588.0</t>
-  </si>
-  <si>
-    <t>98000.0</t>
-  </si>
-  <si>
-    <t>192588.0</t>
-  </si>
-  <si>
-    <t>197.0</t>
-  </si>
-  <si>
-    <t>221600.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>519.0</t>
-  </si>
-  <si>
-    <t>3390.0</t>
-  </si>
-  <si>
-    <t>3134.0</t>
-  </si>
-  <si>
-    <t>806.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
+    <t>2266100.0</t>
+  </si>
+  <si>
+    <t>2835492.0</t>
+  </si>
+  <si>
+    <t>128504.0</t>
+  </si>
+  <si>
+    <t>79800.0</t>
+  </si>
+  <si>
+    <t>48704.0</t>
+  </si>
+  <si>
+    <t>125100.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>14289.0</t>
+  </si>
+  <si>
+    <t>10338.0</t>
+  </si>
+  <si>
+    <t>2844.0</t>
+  </si>
+  <si>
+    <t>2853.0</t>
+  </si>
+  <si>
+    <t>65062.0</t>
+  </si>
+  <si>
+    <t>24420.0</t>
+  </si>
+  <si>
+    <t>40642.0</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>44563.0</t>
+  </si>
+  <si>
+    <t>188654.0</t>
+  </si>
+  <si>
+    <t>174116.0</t>
+  </si>
+  <si>
+    <t>14538.0</t>
+  </si>
+  <si>
+    <t>11715.0</t>
+  </si>
+  <si>
+    <t>8369.0</t>
+  </si>
+  <si>
+    <t>3346.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>14912.0</t>
+  </si>
+  <si>
+    <t>2199876.0</t>
+  </si>
+  <si>
+    <t>2761541.0</t>
+  </si>
+  <si>
+    <t>151699.0</t>
+  </si>
+  <si>
+    <t>92300.0</t>
+  </si>
+  <si>
+    <t>59399.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>116400.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>2391.0</t>
+  </si>
+  <si>
+    <t>14160.0</t>
+  </si>
+  <si>
+    <t>13272.0</t>
+  </si>
+  <si>
+    <t>3581.0</t>
+  </si>
+  <si>
+    <t>3885.0</t>
+  </si>
+  <si>
+    <t>88955.0</t>
+  </si>
+  <si>
+    <t>35407.0</t>
+  </si>
+  <si>
+    <t>53548.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>64722.0</t>
+  </si>
+  <si>
+    <t>276776.0</t>
+  </si>
+  <si>
+    <t>281679.0</t>
+  </si>
+  <si>
+    <t>-4903.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>19554.0</t>
+  </si>
+  <si>
+    <t>14277.0</t>
+  </si>
+  <si>
+    <t>5277.0</t>
+  </si>
+  <si>
+    <t>26738.0</t>
+  </si>
+  <si>
+    <t>2707436.0</t>
+  </si>
+  <si>
+    <t>3617744.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>158075.0</t>
+  </si>
+  <si>
+    <t>86900.0</t>
+  </si>
+  <si>
+    <t>71175.0</t>
+  </si>
+  <si>
+    <t>104000.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>12012.0</t>
+  </si>
+  <si>
+    <t>11469.0</t>
+  </si>
+  <si>
+    <t>2859.0</t>
+  </si>
+  <si>
+    <t>53694.0</t>
+  </si>
+  <si>
+    <t>20635.0</t>
+  </si>
+  <si>
+    <t>33059.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>38193.0</t>
+  </si>
+  <si>
+    <t>179035.0</t>
+  </si>
+  <si>
+    <t>175125.0</t>
+  </si>
+  <si>
+    <t>3910.0</t>
+  </si>
+  <si>
+    <t>11107.0</t>
+  </si>
+  <si>
+    <t>2934.0</t>
+  </si>
+  <si>
+    <t>14867.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>1810108.0</t>
+  </si>
+  <si>
+    <t>2380074.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>135169.0</t>
+  </si>
+  <si>
+    <t>64300.0</t>
+  </si>
+  <si>
+    <t>70869.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>76800.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>778.0</t>
+  </si>
+  <si>
+    <t>910.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
   </si>
   <si>
     <t>77.0</t>
   </si>
   <si>
-    <t>20377.0</t>
-  </si>
-  <si>
-    <t>13468.0</t>
-  </si>
-  <si>
-    <t>6909.0</t>
-  </si>
-  <si>
-    <t>18116.0</t>
-  </si>
-  <si>
-    <t>67890.0</t>
-  </si>
-  <si>
-    <t>66015.0</t>
-  </si>
-  <si>
-    <t>1875.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>5581.0</t>
-  </si>
-  <si>
-    <t>4967.0</t>
-  </si>
-  <si>
-    <t>614.0</t>
-  </si>
-  <si>
-    <t>8370.0</t>
-  </si>
-  <si>
-    <t>943945.0</t>
-  </si>
-  <si>
-    <t>1176371.0</t>
-  </si>
-  <si>
-    <t>52266.0</t>
-  </si>
-  <si>
-    <t>33900.0</t>
-  </si>
-  <si>
-    <t>18366.0</t>
-  </si>
-  <si>
-    <t>40400.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>790.0</t>
-  </si>
-  <si>
-    <t>3600.0</t>
-  </si>
-  <si>
-    <t>3630.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>1091.0</t>
-  </si>
-  <si>
-    <t>1161.0</t>
-  </si>
-  <si>
-    <t>21995.0</t>
-  </si>
-  <si>
-    <t>13807.0</t>
-  </si>
-  <si>
-    <t>8188.0</t>
-  </si>
-  <si>
-    <t>20149.0</t>
-  </si>
-  <si>
-    <t>73684.0</t>
-  </si>
-  <si>
-    <t>72718.0</t>
-  </si>
-  <si>
-    <t>966.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>8854.0</t>
-  </si>
-  <si>
-    <t>7216.0</t>
-  </si>
-  <si>
-    <t>1638.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>15480.0</t>
-  </si>
-  <si>
-    <t>1035697.0</t>
-  </si>
-  <si>
-    <t>1296244.0</t>
-  </si>
-  <si>
-    <t>56758.0</t>
-  </si>
-  <si>
-    <t>28600.0</t>
-  </si>
-  <si>
-    <t>28158.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>40300.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>613.0</t>
-  </si>
-  <si>
-    <t>3540.0</t>
-  </si>
-  <si>
-    <t>4054.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>1294.0</t>
-  </si>
-  <si>
-    <t>1440.0</t>
-  </si>
-  <si>
-    <t>29560.0</t>
-  </si>
-  <si>
-    <t>16259.0</t>
-  </si>
-  <si>
-    <t>13301.0</t>
-  </si>
-  <si>
-    <t>26462.0</t>
-  </si>
-  <si>
-    <t>91635.0</t>
-  </si>
-  <si>
-    <t>87144.0</t>
-  </si>
-  <si>
-    <t>4491.0</t>
-  </si>
-  <si>
-    <t>9662.0</t>
-  </si>
-  <si>
-    <t>8173.0</t>
-  </si>
-  <si>
-    <t>1489.0</t>
-  </si>
-  <si>
-    <t>14604.0</t>
-  </si>
-  <si>
-    <t>1211967.0</t>
-  </si>
-  <si>
-    <t>1497322.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>73839.0</t>
-  </si>
-  <si>
-    <t>43300.0</t>
-  </si>
-  <si>
-    <t>30539.0</t>
-  </si>
-  <si>
-    <t>68100.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5695.0</t>
-  </si>
-  <si>
-    <t>6597.0</t>
-  </si>
-  <si>
-    <t>1878.0</t>
-  </si>
-  <si>
-    <t>2121.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>44757.0</t>
-  </si>
-  <si>
-    <t>24143.0</t>
-  </si>
-  <si>
-    <t>20614.0</t>
-  </si>
-  <si>
-    <t>38182.0</t>
-  </si>
-  <si>
-    <t>165096.0</t>
-  </si>
-  <si>
-    <t>149620.0</t>
-  </si>
-  <si>
-    <t>15476.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>22725.0</t>
-  </si>
-  <si>
-    <t>17417.0</t>
-  </si>
-  <si>
-    <t>5308.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>34217.0</t>
-  </si>
-  <si>
-    <t>2088284.0</t>
-  </si>
-  <si>
-    <t>2557779.0</t>
-  </si>
-  <si>
-    <t>156574.0</t>
-  </si>
-  <si>
-    <t>79600.0</t>
-  </si>
-  <si>
-    <t>76974.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>123600.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>698.0</t>
-  </si>
-  <si>
-    <t>7562.0</t>
-  </si>
-  <si>
-    <t>7028.0</t>
-  </si>
-  <si>
-    <t>1939.0</t>
-  </si>
-  <si>
-    <t>2196.0</t>
-  </si>
-  <si>
-    <t>42189.0</t>
-  </si>
-  <si>
-    <t>25587.0</t>
-  </si>
-  <si>
-    <t>16602.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>38983.0</t>
-  </si>
-  <si>
-    <t>151963.0</t>
-  </si>
-  <si>
-    <t>146014.0</t>
-  </si>
-  <si>
-    <t>5949.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>16328.0</t>
-  </si>
-  <si>
-    <t>14337.0</t>
-  </si>
-  <si>
-    <t>1991.0</t>
-  </si>
-  <si>
-    <t>24937.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>1926559.0</t>
-  </si>
-  <si>
-    <t>2485617.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>115959.0</t>
-  </si>
-  <si>
-    <t>69800.0</t>
-  </si>
-  <si>
-    <t>46159.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>101900.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>1095.0</t>
-  </si>
-  <si>
-    <t>6941.0</t>
-  </si>
-  <si>
-    <t>4891.0</t>
-  </si>
-  <si>
-    <t>1129.0</t>
-  </si>
-  <si>
-    <t>1242.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>39303.0</t>
-  </si>
-  <si>
-    <t>19742.0</t>
-  </si>
-  <si>
-    <t>19561.0</t>
-  </si>
-  <si>
-    <t>33253.0</t>
-  </si>
-  <si>
-    <t>129441.0</t>
-  </si>
-  <si>
-    <t>123168.0</t>
-  </si>
-  <si>
-    <t>6273.0</t>
-  </si>
-  <si>
-    <t>10112.0</t>
-  </si>
-  <si>
-    <t>8646.0</t>
-  </si>
-  <si>
-    <t>1466.0</t>
-  </si>
-  <si>
-    <t>13783.0</t>
-  </si>
-  <si>
-    <t>1382853.0</t>
-  </si>
-  <si>
-    <t>1720047.0</t>
-  </si>
-  <si>
-    <t>80910.0</t>
-  </si>
-  <si>
-    <t>47200.0</t>
-  </si>
-  <si>
-    <t>33710.0</t>
-  </si>
-  <si>
-    <t>67200.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>608.0</t>
-  </si>
-  <si>
-    <t>6544.0</t>
-  </si>
-  <si>
-    <t>4294.0</t>
-  </si>
-  <si>
-    <t>1128.0</t>
-  </si>
-  <si>
-    <t>1344.0</t>
-  </si>
-  <si>
-    <t>30981.0</t>
-  </si>
-  <si>
-    <t>14196.0</t>
-  </si>
-  <si>
-    <t>16785.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>26065.0</t>
-  </si>
-  <si>
-    <t>105133.0</t>
-  </si>
-  <si>
-    <t>96206.0</t>
-  </si>
-  <si>
-    <t>8927.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>6149.0</t>
-  </si>
-  <si>
-    <t>5390.0</t>
-  </si>
-  <si>
-    <t>759.0</t>
-  </si>
-  <si>
-    <t>8797.0</t>
-  </si>
-  <si>
-    <t>1249460.0</t>
-  </si>
-  <si>
-    <t>1561406.0</t>
-  </si>
-  <si>
-    <t>86635.0</t>
-  </si>
-  <si>
-    <t>47100.0</t>
-  </si>
-  <si>
-    <t>39535.0</t>
-  </si>
-  <si>
-    <t>50200.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>918.0</t>
-  </si>
-  <si>
-    <t>11926.0</t>
-  </si>
-  <si>
-    <t>9613.0</t>
-  </si>
-  <si>
-    <t>2666.0</t>
-  </si>
-  <si>
-    <t>2754.0</t>
-  </si>
-  <si>
-    <t>48995.0</t>
-  </si>
-  <si>
-    <t>26512.0</t>
-  </si>
-  <si>
-    <t>22483.0</t>
-  </si>
-  <si>
-    <t>44418.0</t>
-  </si>
-  <si>
-    <t>185786.0</t>
-  </si>
-  <si>
-    <t>170610.0</t>
-  </si>
-  <si>
-    <t>15176.0</t>
-  </si>
-  <si>
-    <t>15054.0</t>
-  </si>
-  <si>
-    <t>12426.0</t>
-  </si>
-  <si>
-    <t>2628.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>20905.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>2266100.0</t>
-  </si>
-  <si>
-    <t>2835492.0</t>
-  </si>
-  <si>
-    <t>128504.0</t>
-  </si>
-  <si>
-    <t>79800.0</t>
-  </si>
-  <si>
-    <t>48704.0</t>
-  </si>
-  <si>
-    <t>125100.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>627.0</t>
-  </si>
-  <si>
-    <t>14243.0</t>
-  </si>
-  <si>
-    <t>10338.0</t>
-  </si>
-  <si>
-    <t>2610.0</t>
-  </si>
-  <si>
-    <t>2853.0</t>
-  </si>
-  <si>
-    <t>50517.0</t>
-  </si>
-  <si>
-    <t>24420.0</t>
-  </si>
-  <si>
-    <t>26097.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>44563.0</t>
-  </si>
-  <si>
-    <t>188667.0</t>
-  </si>
-  <si>
-    <t>174115.0</t>
-  </si>
-  <si>
-    <t>14552.0</t>
-  </si>
-  <si>
-    <t>10744.0</t>
-  </si>
-  <si>
-    <t>8369.0</t>
-  </si>
-  <si>
-    <t>2375.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>14912.0</t>
-  </si>
-  <si>
-    <t>2199876.0</t>
-  </si>
-  <si>
-    <t>2761541.0</t>
-  </si>
-  <si>
-    <t>151699.0</t>
-  </si>
-  <si>
-    <t>92300.0</t>
-  </si>
-  <si>
-    <t>59399.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>116400.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>2392.0</t>
-  </si>
-  <si>
-    <t>14110.0</t>
-  </si>
-  <si>
-    <t>13272.0</t>
-  </si>
-  <si>
-    <t>3240.0</t>
-  </si>
-  <si>
-    <t>3885.0</t>
-  </si>
-  <si>
-    <t>73595.0</t>
-  </si>
-  <si>
-    <t>35407.0</t>
-  </si>
-  <si>
-    <t>38188.0</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
-    <t>64722.0</t>
-  </si>
-  <si>
-    <t>276913.0</t>
-  </si>
-  <si>
-    <t>281656.0</t>
-  </si>
-  <si>
-    <t>-4743.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>18853.0</t>
-  </si>
-  <si>
-    <t>14277.0</t>
-  </si>
-  <si>
-    <t>4576.0</t>
-  </si>
-  <si>
-    <t>26738.0</t>
-  </si>
-  <si>
-    <t>2707436.0</t>
-  </si>
-  <si>
-    <t>3617744.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>158075.0</t>
-  </si>
-  <si>
-    <t>86900.0</t>
-  </si>
-  <si>
-    <t>71175.0</t>
-  </si>
-  <si>
-    <t>104000.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>482.0</t>
-  </si>
-  <si>
-    <t>11950.0</t>
-  </si>
-  <si>
-    <t>11469.0</t>
-  </si>
-  <si>
-    <t>2769.0</t>
-  </si>
-  <si>
-    <t>2859.0</t>
-  </si>
-  <si>
-    <t>39954.0</t>
-  </si>
-  <si>
-    <t>20635.0</t>
-  </si>
-  <si>
-    <t>19319.0</t>
-  </si>
-  <si>
-    <t>38193.0</t>
-  </si>
-  <si>
-    <t>179040.0</t>
-  </si>
-  <si>
-    <t>175057.0</t>
-  </si>
-  <si>
-    <t>3983.0</t>
-  </si>
-  <si>
-    <t>10203.0</t>
-  </si>
-  <si>
-    <t>2030.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>14867.0</t>
-  </si>
-  <si>
-    <t>1810108.0</t>
-  </si>
-  <si>
-    <t>2380074.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>135169.0</t>
-  </si>
-  <si>
-    <t>64300.0</t>
-  </si>
-  <si>
-    <t>70869.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>76800.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>781.0</t>
-  </si>
-  <si>
-    <t>910.0</t>
-  </si>
-  <si>
-    <t>153.0</t>
-  </si>
-  <si>
-    <t>243.0</t>
-  </si>
-  <si>
-    <t>1501.0</t>
+    <t>2468.0</t>
   </si>
   <si>
     <t>1423.0</t>
   </si>
   <si>
+    <t>1045.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
     <t>1849.0</t>
   </si>
   <si>
-    <t>11989.0</t>
-  </si>
-  <si>
-    <t>12023.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
+    <t>11984.0</t>
+  </si>
+  <si>
+    <t>12017.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
   </si>
   <si>
     <t>-0.0</t>
   </si>
   <si>
-    <t>568.0</t>
+    <t>722.0</t>
   </si>
   <si>
     <t>392.0</t>
   </si>
   <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
+    <t>330.0</t>
   </si>
   <si>
     <t>823.0</t>
@@ -1768,9 +1792,6 @@
   </si>
   <si>
     <t>3300.0</t>
-  </si>
-  <si>
-    <t>2884.0</t>
   </si>
   <si>
     <t>5200.0</t>
@@ -2301,42 +2322,42 @@
         <v>43</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2345,36 +2366,36 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2383,28 +2404,28 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>68</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>69</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -2433,13 +2454,13 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -2477,13 +2498,13 @@
         <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>84</v>
@@ -2524,7 +2545,7 @@
         <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -2622,13 +2643,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2640,7 +2661,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -2657,13 +2678,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -2675,13 +2696,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
@@ -2701,13 +2722,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -2719,13 +2740,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M4" t="s">
-        <v>341</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -2745,31 +2766,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -2778,86 +2799,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" t="s">
+        <v>357</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>348</v>
-      </c>
-      <c r="K6" t="s">
-        <v>349</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K7" t="s">
-        <v>353</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -2877,28 +2898,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L8" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M8" t="s">
         <v>185</v>
@@ -2921,31 +2942,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K9" t="s">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -2968,25 +2989,25 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
@@ -2995,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -3075,13 +3096,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3093,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -3110,13 +3131,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -3128,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -3154,13 +3175,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -3172,13 +3193,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M4" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -3198,31 +3219,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K5" t="s">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -3231,86 +3252,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>379</v>
-      </c>
-      <c r="K6" t="s">
-        <v>380</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>387</v>
       </c>
       <c r="L7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M7" t="s">
-        <v>385</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -3330,31 +3351,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -3374,31 +3395,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -3421,28 +3442,28 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K10" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -3528,13 +3549,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3546,7 +3567,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -3563,13 +3584,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -3581,10 +3602,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -3607,13 +3628,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -3625,13 +3646,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M4" t="s">
-        <v>401</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -3651,31 +3672,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K5" t="s">
-        <v>282</v>
+        <v>407</v>
       </c>
       <c r="L5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -3684,86 +3705,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>408</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="L7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -3783,28 +3804,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -3827,31 +3848,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -3874,28 +3895,28 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -3981,13 +4002,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3999,7 +4020,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -4016,13 +4037,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -4034,10 +4055,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -4060,13 +4081,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -4078,13 +4099,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M4" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -4104,31 +4125,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -4137,86 +4158,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K6" t="s">
+        <v>440</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>434</v>
-      </c>
-      <c r="K6" t="s">
-        <v>435</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>445</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -4236,28 +4257,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F8" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L8" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -4280,31 +4301,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K9" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="L9" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -4327,16 +4348,16 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>163</v>
@@ -4348,13 +4369,13 @@
         <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>453</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -4434,13 +4455,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4452,7 +4473,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -4469,13 +4490,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -4487,10 +4508,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -4513,13 +4534,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -4531,13 +4552,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M4" t="s">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -4557,31 +4578,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="L5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -4590,86 +4611,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>458</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K6" t="s">
+        <v>440</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>459</v>
-      </c>
-      <c r="K6" t="s">
-        <v>435</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="L7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -4689,28 +4710,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L8" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -4733,31 +4754,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F9" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K9" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L9" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -4780,16 +4801,16 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -4798,16 +4819,16 @@
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K10" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -4887,13 +4908,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>477</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4905,7 +4926,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -4922,13 +4943,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -4940,10 +4961,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -4966,13 +4987,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -4984,13 +5005,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L4" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M4" t="s">
-        <v>401</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5010,31 +5031,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L5" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -5043,86 +5064,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>496</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
       <c r="J6" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="K6" t="s">
         <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -5142,28 +5163,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E8" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L8" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -5186,31 +5207,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F9" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="K9" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L9" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -5233,34 +5254,34 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E10" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>503</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -5340,13 +5361,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5358,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -5375,13 +5396,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -5393,10 +5414,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -5419,13 +5440,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -5437,13 +5458,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L4" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M4" t="s">
-        <v>472</v>
+        <v>159</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5463,31 +5484,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F5" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K5" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -5496,86 +5517,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F6" t="s">
-        <v>516</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>523</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>517</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K6" t="s">
+        <v>525</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>518</v>
-      </c>
-      <c r="K6" t="s">
-        <v>519</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E7" t="s">
-        <v>505</v>
-      </c>
-      <c r="F7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="L7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -5595,31 +5616,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E8" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L8" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M8" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -5639,31 +5660,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E9" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K9" t="s">
         <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -5686,34 +5707,34 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E10" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F10" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -5793,13 +5814,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5811,7 +5832,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -5828,13 +5849,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -5846,10 +5867,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L3" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -5872,13 +5893,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F4" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -5890,13 +5911,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L4" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M4" t="s">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5916,31 +5937,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>546</v>
       </c>
       <c r="L5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -5949,86 +5970,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>531</v>
-      </c>
-      <c r="E6" t="s">
-        <v>532</v>
-      </c>
-      <c r="F6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>549</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>543</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>550</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>544</v>
-      </c>
-      <c r="K6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>531</v>
-      </c>
-      <c r="E7" t="s">
-        <v>532</v>
-      </c>
-      <c r="F7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K7" t="s">
-        <v>547</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="M7" t="s">
-        <v>353</v>
+        <v>554</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -6048,31 +6069,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E8" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L8" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M8" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -6092,31 +6113,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="K9" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="L9" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -6139,28 +6160,28 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E10" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -6246,13 +6267,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -6264,7 +6285,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -6281,13 +6302,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -6299,13 +6320,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
@@ -6325,13 +6346,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -6343,13 +6364,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L4" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
+        <v>569</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -6369,119 +6390,119 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
+        <v>572</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>573</v>
       </c>
       <c r="L5" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="M5" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F6" t="s">
-        <v>566</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>567</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>577</v>
+      </c>
+      <c r="K6" t="s">
+        <v>578</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>568</v>
-      </c>
-      <c r="K6" t="s">
-        <v>569</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="K7" t="s">
-        <v>573</v>
+        <v>261</v>
       </c>
       <c r="L7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>569</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -6501,31 +6522,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F8" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="L8" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M8" t="s">
-        <v>255</v>
+        <v>569</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -6545,31 +6566,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F9" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>579</v>
+        <v>459</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -6592,16 +6613,16 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E10" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -6610,7 +6631,7 @@
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -6828,13 +6849,13 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>107</v>
@@ -6846,24 +6867,24 @@
         <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -6875,13 +6896,13 @@
         <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
         <v>112</v>
@@ -6890,18 +6911,18 @@
         <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>96</v>
@@ -6913,25 +6934,25 @@
         <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>116</v>
       </c>
       <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
         <v>117</v>
       </c>
-      <c r="L7" t="s">
-        <v>118</v>
-      </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -6957,25 +6978,25 @@
         <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s">
         <v>119</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>120</v>
-      </c>
-      <c r="M8" t="s">
-        <v>121</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -7001,25 +7022,25 @@
         <v>97</v>
       </c>
       <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
         <v>123</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
         <v>124</v>
-      </c>
-      <c r="K9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" t="s">
-        <v>126</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -7048,22 +7069,22 @@
         <v>97</v>
       </c>
       <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
         <v>127</v>
       </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>128</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>129</v>
-      </c>
-      <c r="J10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -7149,13 +7170,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -7167,7 +7188,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -7184,13 +7205,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
         <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -7202,10 +7223,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -7228,13 +7249,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -7246,13 +7267,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
         <v>137</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" t="s">
-        <v>139</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -7272,31 +7293,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>141</v>
       </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>142</v>
-      </c>
-      <c r="K5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" t="s">
-        <v>144</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -7305,83 +7326,83 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
         <v>145</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>146</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" t="s">
         <v>150</v>
-      </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" t="s">
-        <v>152</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -7404,31 +7425,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" t="s">
         <v>153</v>
-      </c>
-      <c r="L8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" t="s">
-        <v>155</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -7448,34 +7469,34 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>157</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>158</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
@@ -7495,22 +7516,22 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
         <v>91</v>
@@ -7643,7 +7664,7 @@
         <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -7655,10 +7676,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -7687,7 +7708,7 @@
         <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -7699,10 +7720,10 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -7731,25 +7752,25 @@
         <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -7758,18 +7779,18 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>164</v>
@@ -7778,36 +7799,36 @@
         <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>164</v>
@@ -7816,28 +7837,28 @@
         <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" t="s">
         <v>125</v>
-      </c>
-      <c r="L7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M7" t="s">
-        <v>182</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -7866,13 +7887,13 @@
         <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
         <v>183</v>
@@ -7910,13 +7931,13 @@
         <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>188</v>
@@ -7957,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>101</v>
@@ -7966,10 +7987,10 @@
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -8055,13 +8076,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8073,7 +8094,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -8090,13 +8111,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -8108,10 +8129,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -8134,13 +8155,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -8152,13 +8173,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -8178,113 +8199,113 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -8304,31 +8325,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -8348,34 +8369,34 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
@@ -8395,34 +8416,34 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K10" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -8502,13 +8523,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8520,7 +8541,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -8537,13 +8558,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -8555,13 +8576,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
@@ -8581,13 +8602,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -8599,13 +8620,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -8625,31 +8646,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -8658,86 +8679,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" t="s">
-        <v>231</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -8757,31 +8778,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -8801,31 +8822,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -8848,34 +8869,34 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -8955,13 +8976,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -8973,7 +8994,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -8990,13 +9011,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -9008,10 +9029,10 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -9034,13 +9055,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -9052,13 +9073,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -9078,31 +9099,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -9111,86 +9132,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" t="s">
-        <v>263</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M7" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -9210,28 +9231,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -9254,31 +9275,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -9301,16 +9322,16 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>101</v>
@@ -9319,10 +9340,10 @@
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -9408,13 +9429,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9426,7 +9447,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -9443,13 +9464,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -9461,13 +9482,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M3" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
@@ -9487,13 +9508,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -9505,13 +9526,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M4" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -9531,31 +9552,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -9564,86 +9585,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K6" t="s">
-        <v>292</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K7" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="L7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M7" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -9663,28 +9684,28 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
@@ -9707,31 +9728,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="L9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -9754,28 +9775,28 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
@@ -9861,13 +9882,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -9879,7 +9900,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -9896,13 +9917,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -9914,13 +9935,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N3" t="s">
         <v>33</v>
@@ -9940,13 +9961,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -9958,13 +9979,13 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -9984,31 +10005,31 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="L5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -10017,86 +10038,86 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>320</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M7" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -10116,31 +10137,31 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M8" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
         <v>77</v>
@@ -10160,31 +10181,31 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -10207,16 +10228,16 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -10225,16 +10246,16 @@
         <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L10" t="s">
         <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
